--- a/data/trans_camb/P14_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_2-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,96</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>10,27</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 22,1</t>
+          <t>3,34; 36,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 9,42</t>
+          <t>-6,24; 16,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 12,49</t>
+          <t>1,59; 21,24</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>697,32%</t>
+          <t>511,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>65,08%</t>
+          <t>68,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>219,72%</t>
+          <t>206,42%</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-79,61; 859,75</t>
+          <t>-80,81; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1003,06</t>
+          <t>-5,32; 1228,84</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,54</t>
+          <t>12,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,23</t>
+          <t>13,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,9</t>
+          <t>13,12</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 22,09</t>
+          <t>2,54; 29,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 21,43</t>
+          <t>1,12; 25,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 18,1</t>
+          <t>4,16; 21,79</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>196,42%</t>
+          <t>777,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>310,9%</t>
+          <t>198,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>249,26%</t>
+          <t>307,74%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 1185,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,82; 1677,8</t>
+          <t>-17,0; 1008,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,63; 728,39</t>
+          <t>31,28; 1091,14</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>9,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,69</t>
+          <t>13,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,28</t>
+          <t>12,32</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 16,85</t>
+          <t>-2,57; 23,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 20,12</t>
+          <t>3,28; 24,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 16,37</t>
+          <t>3,42; 19,56</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>121,49%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>114,37%</t>
+          <t>112,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>117,5%</t>
+          <t>107,01%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 442,47</t>
+          <t>-23,55; 559,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,74; 285,8</t>
+          <t>16,45; 279,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,01; 242,36</t>
+          <t>20,65; 233,7</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,11</t>
+          <t>15,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,22</t>
+          <t>12,3</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 15,93</t>
+          <t>-1,58; 19,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,86; 21,41</t>
+          <t>7,68; 24,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 16,61</t>
+          <t>5,74; 18,59</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>76,06%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>359,43%</t>
+          <t>521,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>168,64%</t>
+          <t>200,5%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 246,42</t>
+          <t>-23,19; 378,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>88,53; 921,48</t>
+          <t>67,07; 2225,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>67,84; 362,82</t>
+          <t>58,92; 477,15</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,96</t>
+          <t>12,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>10,09</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,18; 17,38</t>
+          <t>3,29; 23,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 11,8</t>
+          <t>-0,26; 18,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 13,36</t>
+          <t>3,47; 17,41</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>225,83%</t>
+          <t>412,63%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>133,11%</t>
+          <t>330,61%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>185,58%</t>
+          <t>387,83%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,98; 941,74</t>
+          <t>-18,78; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,07; 775,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>40,63; 559,23</t>
+          <t>23,7; 2459,94</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>4,15</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,71; 16,02</t>
+          <t>-1,75; 25,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,26; 9,8</t>
+          <t>-0,24; 13,65</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>753,46%</t>
+          <t>343,88%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>877,03%</t>
+          <t>335,09%</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>10,87</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,03; 12,05</t>
+          <t>6,22; 15,38</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,39; 12,28</t>
+          <t>6,48; 15,37</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,04</t>
+          <t>7,43; 14,07</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>155,64%</t>
+          <t>204,27%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>193,58%</t>
+          <t>180,35%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>174,91%</t>
+          <t>189,89%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>77,96; 303,64</t>
+          <t>89,43; 434,5</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>101,52; 322,18</t>
+          <t>77,62; 334,08</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>103,88; 265,01</t>
+          <t>106,91; 306,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_2-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,201 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>17,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,32</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,27</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>16.61883370878165</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.315729570176696</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.926583836556466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,34; 36,33</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; 16,85</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 21,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.768808409318399</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.88251827701439</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.701580143750927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>511,58%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>68,94%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>206,42%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>36.83153882106133</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.06454940038524</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>21.69536538897675</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-80,81; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,32; 1228,84</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>5.582837316707943</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.7299137373216719</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>2.126700390139174</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>12,81</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>13,76</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>13,12</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="n">
+        <v>-0.7996286882532282</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.04333791961422008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 29,28</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 25,67</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,16; 21,79</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="n">
+        <v>12.99861087272754</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>777,36%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>198,33%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>307,74%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>12.5142850823398</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>13.33702137469047</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>12.96561101216296</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-17,0; 1008,28</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>31,28; 1091,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>3.362547918974299</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.214722593420184</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>4.563902210610647</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>9,9</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13,91</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>12,32</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>27.91400824127566</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>25.67338109539488</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>21.24253801540442</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 23,78</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,28; 24,48</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,42; 19,56</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>9.372070640707813</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.973959668725778</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>3.329149337363035</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>98,48%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>112,14%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>107,01%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="n">
+        <v>-0.173198198439819</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.3438275787259518</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-23,55; 559,03</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,45; 279,22</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>20,65; 233,7</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="n">
+        <v>10.62254890515464</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>11.60465577003391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +765,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>8,51</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>15,54</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>12,3</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>9.140871725716167</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>14.14830826858307</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>12.13403768661202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 19,65</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>7,68; 24,58</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>5,74; 18,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.131995182426651</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>3.790883052487139</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>3.623857441822876</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>86,61%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>521,9%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>200,5%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>22.96171867603858</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>24.86584144144526</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>19.14696003206407</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-23,19; 378,92</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>67,07; 2225,97</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>58,92; 477,15</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.9303843226866536</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>1.178384839002279</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>1.087383079713069</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>12,65</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>10,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2622486329540438</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.1861764392731301</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.2408775056555213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>3,29; 23,27</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 18,31</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>3,47; 17,41</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>5.644417515510707</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>2.945999544380783</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>2.359617207355107</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>412,63%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>330,61%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>387,83%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>9.652087592531808</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>15.3058958883485</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>12.73557755845287</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-18,78; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>23,7; 2459,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.9701911067829398</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>7.724527725454046</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>6.313553643507588</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>7,65</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>4,15</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>21.79221306896202</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>24.0959160349358</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>19.45217418783097</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,75; 25,13</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 13,65</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.005637146265213</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>5.541419203392651</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>2.164963180049398</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>343,88%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>335,09%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1562312997069419</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.7594577774852365</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.653595615433022</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>4.241464821442082</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>23.8045172689195</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>5.160093058742202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +977,289 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>10,51</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>11,23</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>10,87</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>12.40218100523963</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>5.991885067166272</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>9.725392874673938</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>6,22; 15,38</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 15,37</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>7,43; 14,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>2.649281191200248</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-0.9640677878290754</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>3.097021487827416</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>204,27%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>180,35%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>189,89%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>22.79054498194869</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>17.26942418476237</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>17.16621690405398</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>89,43; 434,5</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>77,62; 334,08</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>106,91; 306,33</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>3.821380586441543</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>3.194700292864931</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>3.649801497394109</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.1745028571038162</v>
+      </c>
+      <c r="D32" s="6" t="inlineStr"/>
+      <c r="E32" s="6" t="n">
+        <v>0.204955558785863</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr"/>
+      <c r="D33" s="6" t="inlineStr"/>
+      <c r="E33" s="6" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>8.85866879488208</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>5.028996605874672</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr"/>
+      <c r="D35" s="5" t="n">
+        <v>-0.5041307783665249</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-0.02487851681242755</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr"/>
+      <c r="D36" s="5" t="n">
+        <v>27.5145331831618</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>15.82127706691605</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr"/>
+      <c r="D37" s="6" t="n">
+        <v>4.32023158379857</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>4.607263164070479</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr"/>
+      <c r="D38" s="6" t="inlineStr"/>
+      <c r="E38" s="6" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="inlineStr"/>
+      <c r="E39" s="6" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>10.59359755088481</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>11.22977724773986</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>10.92410463489152</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>6.210343901995972</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>6.469573456591121</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>7.609420707373676</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>15.54957382429715</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>15.30206450967919</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>14.15383590370072</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>2.113815492447708</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>1.866878819712633</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>1.96971141224667</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>0.9171296250673078</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>0.7856544355881676</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>1.125260744610353</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>4.565849801723164</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>3.416547105880733</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>3.184281968430222</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1267,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
